--- a/medicine/Œil et vue/Anophtalmie/Anophtalmie.xlsx
+++ b/medicine/Œil et vue/Anophtalmie/Anophtalmie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anophtalmie, degré extrême de la microphtalmie, est une malformation rare caractérisée par l'absence d'un ou des deux yeux à la naissance. Elle touche environ une naissance sur 100 000[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anophtalmie, degré extrême de la microphtalmie, est une malformation rare caractérisée par l'absence d'un ou des deux yeux à la naissance. Elle touche environ une naissance sur 100 000.
 La prise en charge esthétique, qui doit être rapidement mise en place après la naissance, fait intervenir des prothèses oculaires de tailles croissantes.
-Les familles peuvent prendre contact avec des associations de personnes concernées pour partager l'expérience avec d'autres personnes atteintes, avec des parents, pour avoir des conseils pour gérer le quotidien et pour mieux connaître les démarches de prise en charge adaptés [2],
-[3],
-[4].
+Les familles peuvent prendre contact avec des associations de personnes concernées pour partager l'expérience avec d'autres personnes atteintes, avec des parents, pour avoir des conseils pour gérer le quotidien et pour mieux connaître les démarches de prise en charge adaptés ,
+,
+.
 </t>
         </is>
       </c>
